--- a/ESTADISTICAS/tablas anuario originales- fallecimientos 2019.xlsx
+++ b/ESTADISTICAS/tablas anuario originales- fallecimientos 2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7590" tabRatio="969" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7590" tabRatio="969" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Fallec Sist Cuidado Alternativo" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="91">
   <si>
     <t>CSC</t>
   </si>
@@ -228,16 +228,10 @@
     <t xml:space="preserve"> Sistema Residencial de Protección</t>
   </si>
   <si>
-    <t>PROGRAMAS AMBULATORIOS ADMINISTRADOS POR OCAS</t>
-  </si>
-  <si>
     <t xml:space="preserve">ÁREA </t>
   </si>
   <si>
     <t>Sistema Ambulatorio de Protección</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programa </t>
   </si>
   <si>
     <t xml:space="preserve">Sistema   </t>
@@ -350,12 +344,48 @@
   <si>
     <t>RESIDENCIAS Y PROGRAMAS DE ADMINISTRACIÓN DIRECTA</t>
   </si>
+  <si>
+    <t>Tabla</t>
+  </si>
+  <si>
+    <t>Fallecimiento de NNAA</t>
+  </si>
+  <si>
+    <t>Tasa de mortalidad de NNAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADMINISTRADOS POR OCAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administracion </t>
+  </si>
+  <si>
+    <t>Evolución n° de fallecimientos de NNAA</t>
+  </si>
+  <si>
+    <t>Fallecimiento de adolescentes, jóvenes y adultos atendidos</t>
+  </si>
+  <si>
+    <t>Tasa de mortalidad de adolescentes, jóvenes y adultos atendidos</t>
+  </si>
+  <si>
+    <t>allecimiento de adolescentes, jóvenes y adultos atendidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla </t>
+  </si>
+  <si>
+    <t>Evolución n° de fallecimientos de NNAA atendidos</t>
+  </si>
+  <si>
+    <t>Niños, Niñas. Adolescentes y Adultos fallecidos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +438,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7.5"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -423,7 +479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -542,11 +598,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -650,11 +715,223 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="87">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <sz val="7.5"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7.5"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2132,89 +2409,96 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla16" displayName="Tabla16" ref="A2:E6" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76" tableBorderDxfId="75">
-  <autoFilter ref="A2:E6"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Area " dataDxfId="74"/>
-    <tableColumn id="2" name="Programa" dataDxfId="73"/>
-    <tableColumn id="3" name="Sistema de Cuidado Alternativo de Protección" dataDxfId="72"/>
-    <tableColumn id="4" name="TRAMO ETARIO" dataDxfId="71"/>
-    <tableColumn id="5" name="Recuento" dataDxfId="70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla16" displayName="Tabla16" ref="A2:F6" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85" tableBorderDxfId="84">
+  <autoFilter ref="A2:F6"/>
+  <tableColumns count="6">
+    <tableColumn id="6" name="Tabla" dataDxfId="8"/>
+    <tableColumn id="1" name="Area " dataDxfId="83"/>
+    <tableColumn id="2" name="Programa" dataDxfId="82"/>
+    <tableColumn id="3" name="Sistema de Cuidado Alternativo de Protección" dataDxfId="81"/>
+    <tableColumn id="4" name="TRAMO ETARIO" dataDxfId="80"/>
+    <tableColumn id="5" name="Recuento" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Tabla5" displayName="Tabla5" ref="A2:E18" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
-  <autoFilter ref="A2:E18"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Area" dataDxfId="13"/>
-    <tableColumn id="2" name="Sistema" dataDxfId="12"/>
-    <tableColumn id="3" name="Tramo etario" dataDxfId="11"/>
-    <tableColumn id="4" name="Año " dataDxfId="10"/>
-    <tableColumn id="5" name="Fallecimientos de NNAA" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Tabla5" displayName="Tabla5" ref="A2:F18" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+  <autoFilter ref="A2:F18"/>
+  <tableColumns count="6">
+    <tableColumn id="6" name="Tabla " dataDxfId="1"/>
+    <tableColumn id="1" name="Area" dataDxfId="22"/>
+    <tableColumn id="2" name="Sistema" dataDxfId="21"/>
+    <tableColumn id="3" name="Tramo etario" dataDxfId="20"/>
+    <tableColumn id="4" name="Año " dataDxfId="19"/>
+    <tableColumn id="5" name="Fallecimientos de NNAA" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla15" displayName="Tabla15" ref="A2:D14" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
-  <autoFilter ref="A2:D14"/>
-  <tableColumns count="4">
-    <tableColumn id="4" name="Area" dataDxfId="3"/>
-    <tableColumn id="3" name="Proyecto de la red Sename" dataDxfId="2"/>
-    <tableColumn id="1" name="TRAMO ETARIO" dataDxfId="1"/>
-    <tableColumn id="7" name="Recuento" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabla15" displayName="Tabla15" ref="A2:E14" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A2:E14"/>
+  <tableColumns count="5">
+    <tableColumn id="2" name="Tabla " dataDxfId="0"/>
+    <tableColumn id="4" name="Area" dataDxfId="12"/>
+    <tableColumn id="3" name="Proyecto de la red Sename" dataDxfId="11"/>
+    <tableColumn id="1" name="TRAMO ETARIO" dataDxfId="10"/>
+    <tableColumn id="7" name="Recuento" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla19" displayName="Tabla19" ref="A2:D4" totalsRowShown="0" headerRowDxfId="69" headerRowBorderDxfId="68" tableBorderDxfId="67" totalsRowBorderDxfId="66">
-  <autoFilter ref="A2:D4"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Area" dataDxfId="65"/>
-    <tableColumn id="2" name="Sistema" dataDxfId="64"/>
-    <tableColumn id="3" name="Residencia" dataDxfId="63"/>
-    <tableColumn id="4" name="Recuento" dataDxfId="62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabla19" displayName="Tabla19" ref="A2:E4" totalsRowShown="0" headerRowDxfId="78" headerRowBorderDxfId="77" tableBorderDxfId="76" totalsRowBorderDxfId="75">
+  <autoFilter ref="A2:E4"/>
+  <tableColumns count="5">
+    <tableColumn id="5" name="Tabla" dataDxfId="7"/>
+    <tableColumn id="1" name="Area" dataDxfId="74"/>
+    <tableColumn id="2" name="Sistema" dataDxfId="73"/>
+    <tableColumn id="3" name="Residencia" dataDxfId="72"/>
+    <tableColumn id="4" name="Recuento" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla20" displayName="Tabla20" ref="A2:E4" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
-  <autoFilter ref="A2:E4"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="ÁREA " dataDxfId="59"/>
-    <tableColumn id="2" name="Sistema   " dataDxfId="58"/>
-    <tableColumn id="3" name="Programa " dataDxfId="57"/>
-    <tableColumn id="4" name="TRAMO ETARIO" dataDxfId="56"/>
-    <tableColumn id="5" name="Recuento" dataDxfId="55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tabla20" displayName="Tabla20" ref="A2:F4" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+  <autoFilter ref="A2:F4"/>
+  <tableColumns count="6">
+    <tableColumn id="6" name="Tabla" dataDxfId="6"/>
+    <tableColumn id="1" name="ÁREA " dataDxfId="68"/>
+    <tableColumn id="2" name="Sistema   " dataDxfId="67"/>
+    <tableColumn id="3" name="Administracion " dataDxfId="66"/>
+    <tableColumn id="4" name="Tramo etario" dataDxfId="65"/>
+    <tableColumn id="5" name="Recuento" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla22" displayName="Tabla22" ref="A3:C4" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52" totalsRowBorderDxfId="51">
-  <autoFilter ref="A3:C4"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Area" dataDxfId="50"/>
-    <tableColumn id="2" name="SISTEMA    " dataDxfId="49"/>
-    <tableColumn id="3" name="Tasa de mortalidad de NNAA atendidos" dataDxfId="48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tabla22" displayName="Tabla22" ref="A2:D3" totalsRowShown="0" headerRowDxfId="63" headerRowBorderDxfId="62" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+  <autoFilter ref="A2:D3"/>
+  <tableColumns count="4">
+    <tableColumn id="4" name="Tabla" dataDxfId="5"/>
+    <tableColumn id="1" name="Area" dataDxfId="59"/>
+    <tableColumn id="2" name="SISTEMA    " dataDxfId="58"/>
+    <tableColumn id="3" name="Tasa de mortalidad de NNAA atendidos" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabla27" displayName="Tabla27" ref="A2:F18" totalsRowShown="0" headerRowDxfId="47">
-  <autoFilter ref="A2:F18"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tabla27" displayName="Tabla27" ref="A2:G18" totalsRowShown="0" headerRowDxfId="56">
+  <autoFilter ref="A2:G18"/>
+  <tableColumns count="7">
+    <tableColumn id="7" name="Tabla"/>
     <tableColumn id="1" name="Area"/>
     <tableColumn id="2" name="SISTEMA    "/>
     <tableColumn id="3" name="LÍNEA"/>
@@ -2227,38 +2511,41 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabla28" displayName="Tabla28" ref="A2:F6" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44" totalsRowBorderDxfId="43">
-  <autoFilter ref="A2:F6"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Área" dataDxfId="42"/>
-    <tableColumn id="2" name="Sistema   " dataDxfId="41"/>
-    <tableColumn id="3" name="Tramo etario" dataDxfId="40"/>
-    <tableColumn id="4" name="Centro de administracion directa _x000a_ADMINISTRACIÓN DIRECTA" dataDxfId="39"/>
-    <tableColumn id="5" name="Sigla " dataDxfId="38"/>
-    <tableColumn id="6" name="Recuento" dataDxfId="37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tabla28" displayName="Tabla28" ref="A2:G6" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54" tableBorderDxfId="53" totalsRowBorderDxfId="52">
+  <autoFilter ref="A2:G6"/>
+  <tableColumns count="7">
+    <tableColumn id="7" name="Tabla" dataDxfId="4"/>
+    <tableColumn id="1" name="Área" dataDxfId="51"/>
+    <tableColumn id="2" name="Sistema   " dataDxfId="50"/>
+    <tableColumn id="3" name="Tramo etario" dataDxfId="49"/>
+    <tableColumn id="4" name="Centro de administracion directa _x000a_ADMINISTRACIÓN DIRECTA" dataDxfId="48"/>
+    <tableColumn id="5" name="Sigla " dataDxfId="47"/>
+    <tableColumn id="6" name="Recuento" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tabla29" displayName="Tabla29" ref="A2:E4" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34" totalsRowBorderDxfId="33">
-  <autoFilter ref="A2:E4"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Área" dataDxfId="32"/>
-    <tableColumn id="2" name="Sistema   " dataDxfId="31"/>
-    <tableColumn id="3" name="CENTRO DE ADMINISTRACION DIRECTA" dataDxfId="30"/>
-    <tableColumn id="4" name="Sigla " dataDxfId="29"/>
-    <tableColumn id="5" name="Recuento" dataDxfId="28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tabla29" displayName="Tabla29" ref="A2:F4" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
+  <autoFilter ref="A2:F4"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Tabla" dataDxfId="41"/>
+    <tableColumn id="6" name="Área" dataDxfId="3"/>
+    <tableColumn id="2" name="Sistema   " dataDxfId="40"/>
+    <tableColumn id="3" name="CENTRO DE ADMINISTRACION DIRECTA" dataDxfId="39"/>
+    <tableColumn id="4" name="Sigla " dataDxfId="38"/>
+    <tableColumn id="5" name="Recuento" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tabla30" displayName="Tabla30" ref="A2:D4" totalsRowShown="0" headerRowDxfId="27">
-  <autoFilter ref="A2:D4"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tabla30" displayName="Tabla30" ref="A2:E4" totalsRowShown="0" headerRowDxfId="36">
+  <autoFilter ref="A2:E4"/>
+  <tableColumns count="5">
+    <tableColumn id="5" name="Tabla"/>
     <tableColumn id="1" name="Area"/>
     <tableColumn id="2" name="Sistema  "/>
     <tableColumn id="3" name="TRAMO ETARIO"/>
@@ -2269,12 +2556,13 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Tabla31" displayName="Tabla31" ref="A2:C3" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
-  <autoFilter ref="A2:C3"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Área" dataDxfId="21"/>
-    <tableColumn id="2" name="Sistema" dataDxfId="20"/>
-    <tableColumn id="3" name="Recuento" dataDxfId="19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Tabla31" displayName="Tabla31" ref="A2:D3" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+  <autoFilter ref="A2:D3"/>
+  <tableColumns count="4">
+    <tableColumn id="4" name="Tabla " dataDxfId="2"/>
+    <tableColumn id="1" name="Área" dataDxfId="30"/>
+    <tableColumn id="2" name="Sistema" dataDxfId="29"/>
+    <tableColumn id="3" name="Recuento" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2577,104 +2865,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="78.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
-    <col min="3" max="3" width="82.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>79</v>
-      </c>
       <c r="D2" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:6" ht="44.25" customHeight="1">
+      <c r="A3" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="B4" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="F5" s="24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="C6" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="24">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="24">
+      <c r="F6" s="24">
         <v>16</v>
       </c>
     </row>
@@ -2689,308 +2992,359 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A3" sqref="A3:A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="C2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>62</v>
-      </c>
       <c r="D2" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="D3" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="E3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F3" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" customHeight="1">
+      <c r="A4" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F5" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="E7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F7" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F8" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F9" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F10" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D11" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="1">
         <v>2016</v>
       </c>
-      <c r="E3" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="F11" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="43" t="s">
+      <c r="E12" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F12" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D13" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F13" s="21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F14" s="21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F15" s="21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1">
         <v>2017</v>
       </c>
-      <c r="E4" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="43" t="s">
+      <c r="F16" s="21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D17" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1">
         <v>2018</v>
       </c>
-      <c r="E5" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="43" t="s">
+      <c r="F17" s="21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D18" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4">
         <v>2019</v>
       </c>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E7" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E8" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E9" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E10" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E11" s="21">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E12" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E13" s="21">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E14" s="21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E15" s="21">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E16" s="21">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2018</v>
-      </c>
-      <c r="E17" s="21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2019</v>
-      </c>
-      <c r="E18" s="22">
+      <c r="F18" s="22">
         <v>22</v>
       </c>
     </row>
@@ -3004,199 +3358,240 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:5" ht="39" customHeight="1">
+      <c r="A2" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="D3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:5" ht="29.25">
+      <c r="A5" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="D5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:5" ht="29.25">
+      <c r="A6" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:5" ht="19.5">
+      <c r="A7" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="D7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:5" ht="19.5">
+      <c r="A8" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:5" ht="19.5">
+      <c r="A9" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="D9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:5" ht="19.5">
+      <c r="A10" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:5" ht="19.5">
+      <c r="A11" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="D11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:5" ht="19.5">
+      <c r="A12" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:5" ht="19.5">
+      <c r="A13" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="D13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:5" ht="19.5">
+      <c r="A14" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>22</v>
       </c>
     </row>
@@ -3210,13 +3605,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="56.140625" customWidth="1"/>
     <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
@@ -3224,50 +3619,59 @@
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="C2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="E2" s="32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="27">
+      <c r="E3" s="27">
         <v>1.74</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="C4" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="D4" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="17">
+      <c r="E4" s="17">
         <v>2</v>
       </c>
     </row>
@@ -3281,70 +3685,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="5" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="D3" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="33">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="33">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>48</v>
-      </c>
       <c r="C4" s="33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="33">
+      <c r="F4" s="33">
         <v>0</v>
       </c>
     </row>
@@ -3358,43 +3771,49 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="52.140625" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="C2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="D2" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="C3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="17">
+      <c r="D3" s="17">
         <v>0.21</v>
       </c>
     </row>
@@ -3408,13 +3827,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -3423,348 +3842,399 @@
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="A2" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="D2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="G2" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>2016</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>2016</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>2017</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>2017</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>2018</v>
+      </c>
+      <c r="G7">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>2018</v>
+      </c>
+      <c r="G8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>2019</v>
+      </c>
+      <c r="G9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>2019</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
         <v>56</v>
       </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="F11">
         <v>2016</v>
       </c>
-      <c r="F3">
+      <c r="G11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F12">
+        <v>2016</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>2017</v>
+      </c>
+      <c r="G13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
         <v>15</v>
       </c>
-      <c r="E4">
-        <v>2016</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F14">
+        <v>2017</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E15" t="s">
         <v>14</v>
       </c>
-      <c r="E5">
-        <v>2017</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F15">
+        <v>2018</v>
+      </c>
+      <c r="G15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E16" t="s">
         <v>15</v>
       </c>
-      <c r="E6">
-        <v>2017</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="F16">
+        <v>2018</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E17" t="s">
         <v>14</v>
       </c>
-      <c r="E7">
-        <v>2018</v>
-      </c>
-      <c r="F7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F17">
+        <v>2019</v>
+      </c>
+      <c r="G17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
         <v>56</v>
       </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E18" t="s">
         <v>15</v>
       </c>
-      <c r="E8">
-        <v>2018</v>
-      </c>
-      <c r="F8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
+      <c r="F18">
         <v>2019</v>
       </c>
-      <c r="F9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>2019</v>
-      </c>
-      <c r="F10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>2016</v>
-      </c>
-      <c r="F11">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>2016</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>2017</v>
-      </c>
-      <c r="F13">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>2017</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>2018</v>
-      </c>
-      <c r="F15">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>2018</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>2019</v>
-      </c>
-      <c r="F17">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <v>2019</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
         <v>0</v>
       </c>
     </row>
@@ -3778,121 +4248,136 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:7" ht="37.5" customHeight="1">
+      <c r="A2" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="F2" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1">
+      <c r="A3" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="G3" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="G5" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="20">
+      <c r="E6" s="29" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="29">
+      <c r="F6" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="29">
         <v>3</v>
       </c>
     </row>
@@ -3906,13 +4391,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
@@ -3920,59 +4405,68 @@
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>50</v>
+        <v>79</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>59</v>
       </c>
       <c r="C2" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>59</v>
+    <row r="3" spans="1:6">
+      <c r="A3" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="E3" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="27">
         <v>0.37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>59</v>
+    <row r="4" spans="1:6">
+      <c r="A4" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="17">
+      <c r="E4" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="17">
         <v>2.42</v>
       </c>
     </row>
@@ -3986,13 +4480,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
@@ -4000,50 +4494,59 @@
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>68</v>
-      </c>
       <c r="C2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>22</v>
       </c>
     </row>
@@ -4057,43 +4560,49 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="72.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="D2" s="32" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="36" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="37">
+      <c r="D3" s="37">
         <v>2.25</v>
       </c>
     </row>
